--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pen</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>item2</t>
+          <t>box</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
@@ -465,14 +465,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>core</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
